--- a/docs/INSPIRE_links.xlsx
+++ b/docs/INSPIRE_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://istitutoboella-my.sharepoint.com/personal/federico_oldani_linksfoundation_com/Documents/LINKS/LINKS-projects/geodatalake_starter_kit/geodatarepository_starter_kit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FedericoOldani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{CD7854A9-71F3-47F5-83EB-879C23BF5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157C9984-0BA5-45B5-8ACC-A003260A950E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032C94F-7412-4A6D-A04B-B2B1F3FA6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataLake_Fields" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="458">
   <si>
     <t>INSPIRE FIELD</t>
   </si>
@@ -1488,6 +1488,15 @@
   </si>
   <si>
     <t>USE ONLY the project name lower case without any stop word</t>
+  </si>
+  <si>
+    <t>destinatary_organization</t>
+  </si>
+  <si>
+    <t>"links"</t>
+  </si>
+  <si>
+    <t>Some of the files will be visible to a specified organization only. Use this field to avoid that other organization outside the target will access to this layer in the frontend</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2061,139 +2070,138 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2509,26 +2517,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377CF9A-B773-43F3-9803-7A7452B72AEB}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
-    <col min="6" max="6" width="191.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" customWidth="1"/>
+    <col min="6" max="6" width="191.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2538,15 +2546,15 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2560,11 +2568,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2578,9 +2586,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
+    <row r="4" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2594,11 +2602,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
@@ -2612,11 +2620,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="C7" s="6" t="s">
@@ -2646,11 +2654,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
@@ -2664,11 +2672,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2682,11 +2690,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="115.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:6" ht="115.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
@@ -2700,11 +2708,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
@@ -2718,9 +2726,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="38"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2728,11 +2736,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
@@ -2746,11 +2754,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
@@ -2764,19 +2772,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="38"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="81"/>
-    </row>
-    <row r="16" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="14" t="s">
         <v>61</v>
       </c>
@@ -2790,9 +2798,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="38"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2800,11 +2808,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="15" t="s">
         <v>67</v>
       </c>
@@ -2818,9 +2826,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
+    <row r="19" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
@@ -2830,13 +2838,13 @@
       <c r="E19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="4" t="s">
         <v>73</v>
       </c>
@@ -2850,11 +2858,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+    <row r="21" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="17" t="s">
         <v>76</v>
       </c>
@@ -2868,37 +2876,37 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="42" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="81"/>
-    </row>
-    <row r="24" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="21" t="s">
         <v>82</v>
       </c>
@@ -2912,11 +2920,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="22" t="s">
         <v>86</v>
       </c>
@@ -2926,11 +2934,11 @@
       <c r="E25" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="71"/>
-    </row>
-    <row r="26" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="24" t="s">
         <v>89</v>
       </c>
@@ -2944,9 +2952,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
+    <row r="27" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="24" t="s">
         <v>91</v>
       </c>
@@ -2956,11 +2964,11 @@
       <c r="E27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="60"/>
-    </row>
-    <row r="28" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
+      <c r="F27" s="77"/>
+    </row>
+    <row r="28" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
@@ -2970,11 +2978,11 @@
       <c r="E28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="82"/>
-    </row>
-    <row r="29" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
+      <c r="F28" s="81"/>
+    </row>
+    <row r="29" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="38"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2982,11 +2990,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="24" t="s">
         <v>97</v>
       </c>
@@ -3000,9 +3008,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
+    <row r="31" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="24" t="s">
         <v>100</v>
       </c>
@@ -3012,11 +3020,11 @@
       <c r="E31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="60"/>
-    </row>
-    <row r="32" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
+      <c r="F31" s="77"/>
+    </row>
+    <row r="32" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="11" t="s">
         <v>103</v>
       </c>
@@ -3026,13 +3034,13 @@
       <c r="E32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="14" t="s">
         <v>106</v>
       </c>
@@ -3046,19 +3054,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+    <row r="34" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="38"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="81"/>
-    </row>
-    <row r="35" spans="1:6" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="1:6" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="4" t="s">
         <v>110</v>
       </c>
@@ -3072,25 +3080,25 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
+    <row r="37" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="38"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3098,11 +3106,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="15" t="s">
         <v>119</v>
       </c>
@@ -3116,9 +3124,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
+    <row r="39" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="4" t="s">
         <v>122</v>
       </c>
@@ -3128,13 +3136,13 @@
       <c r="E39" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9" t="s">
         <v>126</v>
       </c>
@@ -3144,25 +3152,25 @@
       <c r="E40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="80" t="s">
+      <c r="F40" s="46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
+    <row r="41" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="38"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="15" t="s">
         <v>132</v>
       </c>
@@ -3172,13 +3180,13 @@
       <c r="E42" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
+    <row r="43" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15" t="s">
         <v>134</v>
       </c>
@@ -3192,11 +3200,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="4" t="s">
         <v>137</v>
       </c>
@@ -3210,11 +3218,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+    <row r="45" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="44"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="9" t="s">
         <v>141</v>
       </c>
@@ -3228,19 +3236,19 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="38.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-    </row>
-    <row r="47" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
+    <row r="46" spans="1:6" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+    </row>
+    <row r="47" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="70"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="24" t="s">
         <v>144</v>
       </c>
@@ -3250,13 +3258,13 @@
       <c r="E47" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
+    <row r="48" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="11" t="s">
         <v>148</v>
       </c>
@@ -3266,148 +3274,172 @@
       <c r="E48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:7" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="24" t="s">
         <v>151</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73" t="s">
+    <row r="50" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="86" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D51" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E51" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F51" s="42" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77" t="s">
+    <row r="52" spans="1:6" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="77" t="s">
+      <c r="D52" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E52" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F52" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="G51" s="79"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D58" s="34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="34" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D59" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="34" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D60" s="34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="34" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D61" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="35" t="s">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D62" s="34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="35" t="s">
+    <row r="63" spans="1:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="39"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D63" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G62" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F26:F28"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A36:B36"/>
@@ -3422,26 +3454,16 @@
     <mergeCell ref="A25:B28"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{27952872-DF3F-4F9E-9575-E6DA803D613F}"/>
@@ -3463,1226 +3485,1226 @@
       <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>202</v>
       </c>
       <c r="C1" s="37"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="37"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="37"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="C9" s="37"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="37"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="37"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="37"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
       <c r="C13" s="37"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="37"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="37"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="37"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>218</v>
       </c>
       <c r="C17" s="37"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>219</v>
       </c>
       <c r="C18" s="37"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="37"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>221</v>
       </c>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>223</v>
       </c>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>225</v>
       </c>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>226</v>
       </c>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>227</v>
       </c>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>229</v>
       </c>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>439</v>
       </c>
@@ -4707,15 +4729,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -4723,7 +4745,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -4731,7 +4753,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -4739,7 +4761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -4755,7 +4777,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -4763,7 +4785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -4771,7 +4793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -4779,7 +4801,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -4788,7 +4810,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -4797,7 +4819,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -4806,7 +4828,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -4815,7 +4837,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -4824,7 +4846,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -4833,7 +4855,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -4842,7 +4864,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -4851,31 +4873,31 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L24" s="32"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L26" s="31"/>
     </row>
   </sheetData>
@@ -4895,18 +4917,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>440</v>
       </c>
@@ -4914,7 +4936,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>442</v>
       </c>
@@ -4922,7 +4944,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>444</v>
       </c>
@@ -4930,7 +4952,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>446</v>
       </c>
@@ -4944,6 +4966,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007D547C51828DE7448AAD28D53DC8CF1C" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="c709323236ead2ce1f32665ae8dc9c3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f80e5761-cd0c-4b47-84de-13f4e60723a1" xmlns:ns3="fb5c2bd7-4188-4afc-93c9-155cf409d498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1746b71054f8766a08dc033c85f90c6f" ns2:_="" ns3:_="">
     <xsd:import namespace="f80e5761-cd0c-4b47-84de-13f4e60723a1"/>
@@ -5198,15 +5229,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5227,6 +5249,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD6926-078B-4510-806E-254C515ECA54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6293F76A-A071-4102-BFE2-276E17CDB04C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5245,14 +5275,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD6926-078B-4510-806E-254C515ECA54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C28A0E-6661-4FA6-A980-0FA3303207F5}">
   <ds:schemaRefs>
